--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>01652164102</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Quyết</t>
+  </si>
+  <si>
+    <t>01698167487</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,10 +447,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>01698167487</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +461,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>01698167487</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -400,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,14 +458,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>01698167487</t>
+  </si>
+  <si>
+    <t>Trương Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t>0935010385</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 K4</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +126,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,22 +409,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -446,16 +458,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>34516</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>TOEIC 500-700 K4</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Anh Ngọc</t>
+  </si>
+  <si>
+    <t>02/07/1996</t>
+  </si>
+  <si>
+    <t>01232336768</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 K3</t>
   </si>
 </sst>
 </file>
@@ -116,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,6 +140,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
@@ -442,7 +457,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -459,7 +474,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -470,7 +485,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -484,6 +499,23 @@
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -78,6 +78,123 @@
   </si>
   <si>
     <t>TOEIC 500-700 K3</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương Uyên</t>
+  </si>
+  <si>
+    <t>15/12/1996</t>
+  </si>
+  <si>
+    <t>01675735089</t>
+  </si>
+  <si>
+    <t>TOEIC 300-500 K7</t>
+  </si>
+  <si>
+    <t>Phạm Thị Quỳnh Như</t>
+  </si>
+  <si>
+    <t>06/11/1997</t>
+  </si>
+  <si>
+    <t>01643794391</t>
+  </si>
+  <si>
+    <t>Lê Thị Nga</t>
+  </si>
+  <si>
+    <t>29/09/1997</t>
+  </si>
+  <si>
+    <t>0971329894</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>08/01/1996</t>
+  </si>
+  <si>
+    <t>01695240235</t>
+  </si>
+  <si>
+    <t>Lê Thị Thảo Nguyên</t>
+  </si>
+  <si>
+    <t>30/07/1996</t>
+  </si>
+  <si>
+    <t>01246791074</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều Ngân</t>
+  </si>
+  <si>
+    <t>28/08/1996</t>
+  </si>
+  <si>
+    <t>0935300632</t>
+  </si>
+  <si>
+    <t>Trần Thị Thúy Nga</t>
+  </si>
+  <si>
+    <t>11/132/1995</t>
+  </si>
+  <si>
+    <t>01215991514</t>
+  </si>
+  <si>
+    <t>Trần Thị Khánh Ly</t>
+  </si>
+  <si>
+    <t>13/04/1995</t>
+  </si>
+  <si>
+    <t>01689819367</t>
+  </si>
+  <si>
+    <t>Phạm Thị Tâm</t>
+  </si>
+  <si>
+    <t>01674731073</t>
+  </si>
+  <si>
+    <t>05/05/1995</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hoàng</t>
+  </si>
+  <si>
+    <t>01/02/1995</t>
+  </si>
+  <si>
+    <t>01643349391</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Anh Vũ</t>
+  </si>
+  <si>
+    <t>21/02/1995</t>
+  </si>
+  <si>
+    <t>0909246801</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thu Hồng</t>
+  </si>
+  <si>
+    <t>01682883203</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Quỳnh Trân</t>
+  </si>
+  <si>
+    <t>08/07/1995</t>
+  </si>
+  <si>
+    <t>0934999256</t>
   </si>
 </sst>
 </file>
@@ -424,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -435,8 +552,9 @@
     <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,6 +636,271 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5">
+        <v>35013</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -195,6 +195,57 @@
   </si>
   <si>
     <t>0934999256</t>
+  </si>
+  <si>
+    <t>Dương Phương Uyên</t>
+  </si>
+  <si>
+    <t>0936224547</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>19/11/1996</t>
+  </si>
+  <si>
+    <t>0935218270</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu Uyên</t>
+  </si>
+  <si>
+    <t>19/08/1996</t>
+  </si>
+  <si>
+    <t>01635133180</t>
+  </si>
+  <si>
+    <t>Trần Thị Thùy</t>
+  </si>
+  <si>
+    <t>25/12/1996</t>
+  </si>
+  <si>
+    <t>0964510070</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Quang</t>
+  </si>
+  <si>
+    <t>01263734111</t>
+  </si>
+  <si>
+    <t>22/06/1993</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ân</t>
+  </si>
+  <si>
+    <t>0962644063</t>
+  </si>
+  <si>
+    <t>TOEIC 500-700 K5</t>
   </si>
 </sst>
 </file>
@@ -544,7 +595,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -858,28 +909,106 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5">
+        <v>34862</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5">
+        <v>34252</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>TOEIC 500-700 K5</t>
+  </si>
+  <si>
+    <t>Phan Nguyễn Tường Vi</t>
+  </si>
+  <si>
+    <t>22/07/1996</t>
+  </si>
+  <si>
+    <t>0126664496</t>
   </si>
 </sst>
 </file>
@@ -594,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1011,8 +1020,21 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -255,6 +255,21 @@
   </si>
   <si>
     <t>0126664496</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Toàn</t>
+  </si>
+  <si>
+    <t>01643348591</t>
+  </si>
+  <si>
+    <t>Trần Việt Bắc</t>
+  </si>
+  <si>
+    <t>23/3/1994</t>
+  </si>
+  <si>
+    <t>01656189709</t>
   </si>
 </sst>
 </file>
@@ -603,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1037,12 +1052,38 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="5">
+        <v>34701</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Trần Thị Thúy Nga</t>
   </si>
   <si>
-    <t>11/132/1995</t>
-  </si>
-  <si>
     <t>01215991514</t>
   </si>
   <si>
@@ -266,10 +263,43 @@
     <t>Trần Việt Bắc</t>
   </si>
   <si>
-    <t>23/3/1994</t>
-  </si>
-  <si>
     <t>01656189709</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Uyển Thư</t>
+  </si>
+  <si>
+    <t>29/10/1995</t>
+  </si>
+  <si>
+    <t>0905047795</t>
+  </si>
+  <si>
+    <t>TOEIC BK6</t>
+  </si>
+  <si>
+    <t>Đinh Thúy Hằng</t>
+  </si>
+  <si>
+    <t>29/06/1999</t>
+  </si>
+  <si>
+    <t>23/03/1994</t>
+  </si>
+  <si>
+    <t>01658616779</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương Lan</t>
+  </si>
+  <si>
+    <t>01689261569</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Khánh Nhi</t>
+  </si>
+  <si>
+    <t>0898655053</t>
   </si>
 </sst>
 </file>
@@ -320,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,12 +359,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,18 +654,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -639,10 +677,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -650,16 +688,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -667,27 +705,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>34516</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -695,16 +733,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -712,16 +750,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -729,16 +767,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -746,16 +784,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -763,16 +801,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -780,16 +818,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -797,16 +835,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -814,286 +852,350 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>35015</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4">
+        <v>35013</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5">
-        <v>35013</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="4">
+        <v>34862</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5">
-        <v>34862</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4">
+        <v>34252</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="5">
-        <v>34252</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="4">
+        <v>34701</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="5">
-        <v>34701</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="4">
+        <v>34983</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4">
+        <v>34851</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -300,6 +300,48 @@
   </si>
   <si>
     <t>0898655053</t>
+  </si>
+  <si>
+    <t>Lê Châu Anh Phương</t>
+  </si>
+  <si>
+    <t>01263599924</t>
+  </si>
+  <si>
+    <t>TOEIC AK8</t>
+  </si>
+  <si>
+    <t>Nguyễn Trúc Quỳnh</t>
+  </si>
+  <si>
+    <t>16/5/1996</t>
+  </si>
+  <si>
+    <t>01643963152</t>
+  </si>
+  <si>
+    <t>Võ Tuấn Linh</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc My Ny</t>
+  </si>
+  <si>
+    <t>29/7/1996</t>
+  </si>
+  <si>
+    <t>01672417871</t>
+  </si>
+  <si>
+    <t>01672494740</t>
+  </si>
+  <si>
+    <t>Phạm Thị Diệu Phương</t>
+  </si>
+  <si>
+    <t>20/8/1996</t>
+  </si>
+  <si>
+    <t>01206157988</t>
   </si>
 </sst>
 </file>
@@ -654,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1192,7 +1234,89 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="7"/>
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="4">
+        <v>35318</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="4">
+        <v>35217</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>01206157988</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Trà</t>
   </si>
 </sst>
 </file>
@@ -696,9 +699,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -1318,6 +1321,23 @@
         <v>94</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4">
+        <v>35107</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1696365707</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -345,6 +345,54 @@
   </si>
   <si>
     <t>Lê Thị Ngọc Trà</t>
+  </si>
+  <si>
+    <t>Lê Thị Chinh</t>
+  </si>
+  <si>
+    <t>27/9/1997</t>
+  </si>
+  <si>
+    <t>TOEIC AK9</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ánh</t>
+  </si>
+  <si>
+    <t>28/05/1995</t>
+  </si>
+  <si>
+    <t>Trần Thị Điểm</t>
+  </si>
+  <si>
+    <t>Hồ Đình Dụng</t>
+  </si>
+  <si>
+    <t>26/09/1997</t>
+  </si>
+  <si>
+    <t>01696365707</t>
+  </si>
+  <si>
+    <t>0981343293</t>
+  </si>
+  <si>
+    <t>01635997580</t>
+  </si>
+  <si>
+    <t>0932413516</t>
+  </si>
+  <si>
+    <t>0901901610</t>
+  </si>
+  <si>
+    <t>TOEIC BK7</t>
+  </si>
+  <si>
+    <t>Dương Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>0969176761</t>
   </si>
 </sst>
 </file>
@@ -699,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -710,7 +758,7 @@
     <col min="1" max="1" width="7.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1331,11 +1379,111 @@
       <c r="C37" s="4">
         <v>35107</v>
       </c>
-      <c r="D37" s="8">
-        <v>1696365707</v>
+      <c r="D37" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="4">
+        <v>35005</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="4">
+        <v>35127</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
   <si>
     <t>STT</t>
   </si>
@@ -393,6 +393,51 @@
   </si>
   <si>
     <t>0969176761</t>
+  </si>
+  <si>
+    <t>Vũ Lê Thành</t>
+  </si>
+  <si>
+    <t>01629424075</t>
+  </si>
+  <si>
+    <t>TOEIC BK8</t>
+  </si>
+  <si>
+    <t>Đặng Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>13/09/1997</t>
+  </si>
+  <si>
+    <t>0961901296</t>
+  </si>
+  <si>
+    <t>Lê Phan Thúy Giao</t>
+  </si>
+  <si>
+    <t>22/03/1999</t>
+  </si>
+  <si>
+    <t>01227961540</t>
+  </si>
+  <si>
+    <t>Lê Văn Đức</t>
+  </si>
+  <si>
+    <t>0989270424</t>
+  </si>
+  <si>
+    <t>TOEIC AK10</t>
+  </si>
+  <si>
+    <t>Trương Thị Bích Việt</t>
+  </si>
+  <si>
+    <t>19/11/1997</t>
+  </si>
+  <si>
+    <t>01662267490</t>
   </si>
 </sst>
 </file>
@@ -747,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1475,15 +1520,85 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
+      <c r="B43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="4">
+        <v>35713</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
+      <c r="B44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="4">
+        <v>35582</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
   <si>
     <t>STT</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>01662267490</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lam</t>
+  </si>
+  <si>
+    <t>01699772727</t>
   </si>
 </sst>
 </file>
@@ -792,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1601,6 +1607,23 @@
         <v>134</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="4">
+        <v>35986</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="155">
   <si>
     <t>STT</t>
   </si>
@@ -444,6 +444,51 @@
   </si>
   <si>
     <t>01699772727</t>
+  </si>
+  <si>
+    <t>Trương Minh Nhật</t>
+  </si>
+  <si>
+    <t>16/03/1996</t>
+  </si>
+  <si>
+    <t>01202076504</t>
+  </si>
+  <si>
+    <t>TOEIC BK9</t>
+  </si>
+  <si>
+    <t>Hà Trương Khả Tú</t>
+  </si>
+  <si>
+    <t>24/04/1996</t>
+  </si>
+  <si>
+    <t>0906552514</t>
+  </si>
+  <si>
+    <t>Nguyễn Thi Hồng Nhung</t>
+  </si>
+  <si>
+    <t>18/06/1997</t>
+  </si>
+  <si>
+    <t>01683730816</t>
+  </si>
+  <si>
+    <t>Trần Thị Khôi Nguyên</t>
+  </si>
+  <si>
+    <t>0935175875</t>
+  </si>
+  <si>
+    <t>Phan Thị Đông Trúc</t>
+  </si>
+  <si>
+    <t>16/09/1996</t>
+  </si>
+  <si>
+    <t>01658620129</t>
   </si>
 </sst>
 </file>
@@ -798,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1624,6 +1669,91 @@
         <v>134</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="4">
+        <v>31478</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/City Tour Volunteer.xlsx
+++ b/City Tour Volunteer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="199">
   <si>
     <t>STT</t>
   </si>
@@ -467,9 +467,6 @@
     <t>0906552514</t>
   </si>
   <si>
-    <t>Nguyễn Thi Hồng Nhung</t>
-  </si>
-  <si>
     <t>18/06/1997</t>
   </si>
   <si>
@@ -489,6 +486,141 @@
   </si>
   <si>
     <t>01658620129</t>
+  </si>
+  <si>
+    <t>Võ Thanh Quang</t>
+  </si>
+  <si>
+    <t>0943765450</t>
+  </si>
+  <si>
+    <t>TOEIC AK11</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hùng</t>
+  </si>
+  <si>
+    <t>0916663859</t>
+  </si>
+  <si>
+    <t>Văn Thị Thúy Hằng</t>
+  </si>
+  <si>
+    <t>29/04/1998</t>
+  </si>
+  <si>
+    <t>01264464102</t>
+  </si>
+  <si>
+    <t>Phan Thị Minh Trang</t>
+  </si>
+  <si>
+    <t>21/03/1998</t>
+  </si>
+  <si>
+    <t>01266571056</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Sung</t>
+  </si>
+  <si>
+    <t>Trần Thị Trà Giang</t>
+  </si>
+  <si>
+    <t>15/09/1999</t>
+  </si>
+  <si>
+    <t>01635177159</t>
+  </si>
+  <si>
+    <t>01226219802</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Như Quỳnh</t>
+  </si>
+  <si>
+    <t>17/08/1999</t>
+  </si>
+  <si>
+    <t>0967227041</t>
+  </si>
+  <si>
+    <t>Trần Thị Lệ Quỳnh</t>
+  </si>
+  <si>
+    <t>18/03/1997</t>
+  </si>
+  <si>
+    <t>01667790323</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Vân</t>
+  </si>
+  <si>
+    <t>22/11/1997</t>
+  </si>
+  <si>
+    <t>01698589704</t>
+  </si>
+  <si>
+    <t>Châu Thị Ly Na</t>
+  </si>
+  <si>
+    <t>0966475599</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Hân</t>
+  </si>
+  <si>
+    <t>21/11/1996</t>
+  </si>
+  <si>
+    <t>01258393502</t>
+  </si>
+  <si>
+    <t>Trần Khánh Quỳnh Hương</t>
+  </si>
+  <si>
+    <t>29/06/1996</t>
+  </si>
+  <si>
+    <t>0906468111</t>
+  </si>
+  <si>
+    <t>Nguyễn Huyền Trang</t>
+  </si>
+  <si>
+    <t>18/01/1996</t>
+  </si>
+  <si>
+    <t>01292157179</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Như Ý</t>
+  </si>
+  <si>
+    <t>16/02/1997</t>
+  </si>
+  <si>
+    <t>01626480257</t>
+  </si>
+  <si>
+    <t>Trần Hồng Minh</t>
+  </si>
+  <si>
+    <t>17/05/1997</t>
+  </si>
+  <si>
+    <t>0935374742</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Phước</t>
+  </si>
+  <si>
+    <t>0981434879</t>
   </si>
 </sst>
 </file>
@@ -843,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1708,13 +1840,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>143</v>
@@ -1725,13 +1857,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4">
         <v>31478</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>143</v>
@@ -1742,16 +1874,243 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="4">
+        <v>31051</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="4">
+        <v>31812</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="4">
+        <v>36344</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="4">
+        <v>35377</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="4">
+        <v>36436</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
